--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/52_Kocaeli_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/52_Kocaeli_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E209DD96-ED74-45F2-9CB3-4ED81EC2C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8B7E5E-00CA-4BEE-840C-10206FDA09AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{9D7139B3-3CCC-4F9F-8AA2-6CEF6AFEAFD9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{E1B3E327-C763-42F3-85D8-950B1F59B11C}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -797,14 +797,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{EB58E8E2-E15C-42B2-AD08-28331A55682C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{091E26FB-91F6-4062-A48B-B982F7A24D09}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{2D0A5449-AE6F-4BAA-9435-14BBFFAE57F4}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{45F6B575-F6F2-4D11-A0BA-6157F7C013B9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{883F335A-F5E6-4BB0-A3C7-7993AF0C4FA6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{99D9854A-10F0-499E-B598-C200E9AE7177}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E4DD7E41-F362-4D46-A475-ABFEBA3E862D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{05081B09-0B65-43FC-AEE8-5161064B2A4C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A7107B50-9DE9-42E2-B8D6-61AB61456CFC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{346C3695-EAF5-4A7D-A40F-2FBABD021DB5}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5C44E133-E253-412C-A7BF-F3F0A9C4A15C}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{BE647339-31F9-4FFD-8C18-19148B222043}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0156A746-F267-41DE-8812-2CA22B9DA399}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{36A5C1C3-0178-40CC-80FF-92CC4EFA7CE3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BC471134-326F-42AE-8430-B63CFF741188}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1A564EF7-D57F-4FE2-A2F0-EBFA11DD8BD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0439C2-E887-48CF-9A8D-8B69A485F6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27698BE9-1C42-4487-AE32-A63F7CBCF156}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBA0449-AFA5-428E-BFFD-E586CA507481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953456E1-100F-41FE-8211-5709177A5327}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3802,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20E909-4FCA-489F-9D97-BC8F47022A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5C2607-5D36-4BC1-B9A1-DD6D716C41E9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5117,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5F284E-ADBB-4187-A8BB-580CE7B41A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D2CAD4-058A-46E2-9F34-280F64EF1D13}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6430,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021688DE-B23A-4D65-BE44-D0947DA177B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E80C864-F45D-4242-A76E-9E535A9ED863}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7739,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384CD6C8-59EA-4C0B-AB19-D1EA679D841F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082EAB89-6348-4BBE-B2B4-A5D8CB1ED642}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
